--- a/files/img/cats/linkss.xlsx
+++ b/files/img/cats/linkss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Henry PC\Documents\001 Github prog Sharing\Cute_animals\files\img\cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4C6B6D-B320-443A-93DC-DEF873E3AD75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11159012-0700-451B-BE91-1C148E273454}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2205" windowWidth="21930" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRUWFRYYGBgYGBgYGBgYGBgaEhgYGBgZGRgYGBgcIS4lHB4rIRgYJjgmKy8xNTU1GiQ7QDszPy40NTEBDAwMEA8QGhISGjEhISE0MTQ0NDQ0NDQ0NDQ0NDQ0NDE0NDQ0NDQxNDQxMTQ0NDQ0NDQ0NDExND80NDQ/PzQ0NP/AABEIAQAAxQMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAECBwj/xAA3EAABAwMDAgQDBwMFAQEAAAABAAIRAwQhBRIxQVEGImFxgZGxEzJCocHR8BVS4RRicoLxojP/xAAYAQADAQEAAAAAAAAAAAAAAAAAAQIDBP/EAB0RAQEBAQEBAQEBAQAAAAAAAAABEQIhEjFBA1H/2gAMAwEAAhEDEQA/APR1ixYqJixYsQGLFi0UBixVfW/FzKLzSY1z6g5AaSB/OVqw1m5fBfQIB9I/8U3qQ5zatCxA22oseM+U9QcHCIbXaeCFUsv4myxIVpaL1E65bMSgk0rUoSpetb1CG/qzP7h7I1WUzWiljNVYQcjqtjU2xyjRlMVwSlD9Yb3QNxrzR1QWLE54UL67R1VQuPEg7pXceJfVGjF7qXzR1QlbVWjqvPa/iBx4lAVdXeUtPHoFfXAOqW3GvjuqM+7eeqgc8nqlp4t9XxDnlYqZKxGjH0esWpWblRNrFwXhcOuGjqgJlooR980dULW1dg6hAVvU71lO5qOaxu4eUlwRVv4hkDdtB6AY+CR+LBFVz+j4cI9RMpWys1wDWAnGSNxPyAWNvraTx6DR1JlQbXASRxI3fBQV9LP3qLzIOR1Ezgt/X0VTs6j2d47OBIx75HwBTLSteIdtO5m0nDiSCO7T6dlNn9H4KudSrMw7vEpVR1R5eQ4+oPTKca84VaTnt++BkdHf7gfr7qpaVcfab+7QAQeUrev6rmSurjVX/ahgdIcQPmir8Cm4OLoJzzgHlJ9Npipd44YZn2I6f9lNr43PdBwG8ZmBifTJ/JO08MaNcPlskYkHvjCJNcik9/8AbIHtwq7dVfIQ053ME+m0YHzKf+HqG6jUacy53wGJ+CPrCwHo9war4ngFdaxZSTsORmPYZS3TKbmXL2t/Cc/DH+UdVuHB5dz0HyIResonEsIHWrycz+inZpjzwCT9Pf8ANW+w04vHmgGMzgCe5Rj7q3t5DW73jknFOepjqn9Wp+ZFTtPCVZ43YA5nkpk3wc1o6vcRxuaB7mOExq+JKjgANrR0xHwDeAhqd3UcZ3Ez8o9AEbRIQatoL6WX0nsH9w87PiRkJBUpwV65od655LHnc2OCB9F5NdGXv/5O+pVz8Tf1AsW1iaXtlbXmDql9bxM0dVQ3vceSVwQjSxb6/insl9bxM48JBtWoRtGGVXXHu6oU3z3HLkNC6YMoNatfYX2tJ5GdgB/6/wCFRGXj2GWmPhhelutS+08xI2iR8sry+4cXvLWTEx68qK15p/bXu9n3ng+w2nvxn5mFHTuQajQS90fiMbh6QeR6T/nmwoupAF5ftJ6OMdJBB4KYX91bwJg4EkCHAjh4Hywi0Uxtqj8sHm3AgREExAIM84jPZCvsmUab3AEbxvJ6ggHHpworS62tMO3diIBBIkfHn3W76sXMLXGJEQ3gtPWCsbbvq5FY0a/cyqSMbzB9irPf2IjeeXQB3EZ/Q49UgtKLaVQvfBDfu/mD9YT6/vQ4URktLwSeYA6hV17fCnn6XsoBwDOg2Z6EiB88FN7mt/pmEzjqe4MZ98H5pRWuoBIiBWDXe0QPryneq27a1IDEwYnqY6+uQlf5p7/xXvDl059y9x/HJ/YfRWFmmF9ZhwGNPfmJMR8hCTaFafZv2u6CZ9xPy5Vn/wBRAkxkEiPr8kur74fM8SardOAIZhoOTAlx/wAKrVyS4wZzknj4d1baFsx7TPJz6ge545GUlfpw3uO4jtsIMdp3Y+Uq+ffWdmeF8CMhx/L6hYy6LTDZHxyortjmvIDy/wD75HuITDQ9Oc98EKrD8Hsqm3tqtZ33nNLGZkl7xE/U/BefOVr8Z34c8UWHyU8Y6u/ET9FVSFcZW7WoWLaxMHxC1CkIWoQSOFqFIQtEICOF1T5HusK6pzOEBfry+aLVkHlvWOy8spw2q4iOSQRyDKvWq0Hm3pAEZbkR3VOdpxbI5J9MfBRavlHeaq90t7+2Y9UGyu/+4+ucI9+llozyhBRypli7Md2l0Q4HHEEgcjsRwR+aPr3XlbklpnYZkA9Wzz7H5qGmwDbDfunP3sg55lEX1ABmD5XEmM+UkDB7cfTslmjcJNTrl7YaDH8/nwVl014fbB/UCAexaY4+I+SSaHal5qDqMZ4hwIP1/NTaLdCi6ux+WsG8e/l4/NOzzE76Pp0jUcWNja57pjgOAmR8fojvFd19lTosB88z/wBQIM/IJJ4eu3fal4gMYS4g/wBpBk/RMtM0t986rcO+7uIYf9sug/RTmX1W7+JLeruaHddv1Ix8YR1J+6JnrAHX9uEBa0ZJAHlaYA7x1+PPxTejb7SPz7k/plZ2L3EVG6eHbQDtGcAlvxPU/um9u9hYTA3H0Az0Pulte0gjr35/XjlDy9jpBME8Dt2HwV89YnrnS+4097H7nYaTgcmP0Cu+m02solzAA7aTPrCSXjHvLCR5XHrwFYH1GtoPDQPKw+k4Wk/dR1fMeVXri57ieSST65QsIiuZc4+pURC0Zo1i7hYgz8hZC7hcOMIJyVw5yhrXICAq3coGGD6wWm1UAwzyiqTZwEHj0Siz7S1pHk7Y5Serp4aC49Dj/wBVg0So0WrBgESOPzKo3jDWyxxpscI6kHHssu5tyNObntT37wBEg+qVWjfOTEkcCMHuFXP9e8nk+ycaZqMZeOOoEnHoRH0SnNh3qU4dRYfM5pbGcgmIECT29foirqmx9OJ8xZjIc0joRiQOFW7vXnmXMAYM7TDS49JyMICjqlaS9pJLcmIwOpwMBafN/jP6izeHmhm4O5yD+n7pRXtXOfUdtjeXcdQIIH87phYVw9u9ogkZjvwVLbedxAwQSfYfyfms7bFySlNlRLW1Gx95u09we387r1DwTQaLNjRiRJ7+yp2nWs7pE5B9yMgK/aPbllGR+IE9eqW207JIT2FmJJx94mcx/lQVnuc6GNBAOD3Py4S/VfFVGk40mOnYYdta5xx0BGO/VG6F4goVjtDyHdnjaT6p/NxM69NWWpc0E9PqpP6aNueyatpgNE5j0Sy+1umxwaSJPrwsuuWvNaoWrajHM6jr2SvxM91G32SJcdpPonFjUBeCwgtdyZxKR+P71vkpAAn7xPbstf8AL2Mv9JlUJ65IUjlwVszcQsWysQD97oSu7ulq+vOyUPqSg4lfVldU7cnKGpnIVlt6PkkoMqaJIAVt0XTQG7nBJNLpsdUAk89v8q7XIaykYB47/wCEqIUXGo/Z0qzWTJ4jpOMeqpB0qo9xc8OAOZI3T+ysVi/7R7mloA9SZ/M/ou72m+ltAM5g+g6YCV8/DnpLa6c1jtpzPGMH2TS8sR9mYEO2mIIOY45lA3LXB26B7KVt6CAAB68SPjyVnt3V/Ms8VkguZs/EwnHWFljWfT3OGJa5vuHCCPkn9bTaT/M4kO67HCe8kH6KKvotHbIq1HYmHDH5DC1ncY3it+D6gdvYfVw/LCd6JRP2tQenXuqzo9T7JziBOMfOMhXXQXQS8DqJ79z/AOLPtpzMObW0DWnHURjqSOvvCY+MdXFtZvLYDi3Yz0c7yjHWCQUUxrDgDj4Z5lVTxdsumMpPeWv3OLQBOWCPu9zKXGS4fUtea342Bgbw5sk9SeslPrO8pVLVrXMDX0GuioMOJJJb6mDC6uvCtyxux9IVWj7r2PaHNnuHEc/yFPZeG6zixj6f2NIGXS5pqPAzyCuj65nusPm3xeqWnVKlsw03ubuYCJkkSOpOSvM9ZsK1F5D5J7ngr1elq7GNDcNaIaB2AGAkl6wXdVrdvkH44EY9FzTqfXjo+bhT4K1Ko8/ZvzEETgADpA5UHie6L6z9wGDAI7BFXjP9HceTMjtx8uUgu37nOd3JK155y2s+rsgZy4K7IXBVJaWLSxABOa5xWn0iOUVRumtUt/Va5uEHgOz+8FariqG0vgqjYkl4Vhu6gDQCgQf4dtNx3lNtfuw1kA9Eu0q8AbHCT+Ib6XQD+am/qp+O9OaQ4vHPqcJhqFR2wPHmHDojB6GUusK0MJICL0+8c4uH4TjA+idhEdu17yYIzOCfoo61u9roIJ+BT82dPfJLs9Qfr2Vl0ygwDqR3Mwpqoo1taPdzIHqY/JGVSACJbxGcn4fzqrjc6Yw5dIb3aJ+RSG+0eiQdv2kg852j0OFGVX1FSu38AdDyOfaVYvDF4WMGfxZUD9EBY4NJ38tkQfik1m57HOa6WOABzEFVmwb749Qr6tLJaMxiElZpz37ajiS+Mxgu7RGQ4GeEv8PUatV7WNLnS5oMAFonMkdB/O0+m3OkljQGbTiHbjA47QZWfXF/YqdSeVXq9+94gk4xmQ6Pofik99cuyDJ68mZzyrRR0Su1252x2MhpPxAJ5S/XPDb3kOYQ09d0EfllROeqf1zCC3cX4bHxBVrsYZTY0FrnOcASMQOSq/caa9rNp27iIloOT6yJQ9jbvpsh7sz3kgfBac84nrrTbWmtc87drvdsn80hqWc/gH5/unNL5rvYD0V6y+SJunD+0fn+6EutP7NHyVuawIerRan9D5Uv+nOWK5i2b2WJ/Q+XkjDlGPPlQLSjHGWKiZaPAITJ9QvICRtGU2sMnKAZsOxuUkuX7nozUK8GJQNGiT5iDHyn2LsD3P58JQ7TK0YXN2tBdiSB0HUnsPUoygwTtbudiXNp/daOpfUyIHoCPVR2b2lsCCAZ2iRSBHV5wXn+AkYXdapWqxTY6QMkwGsaB+KAIa0Z4E4+CYZcXn2ZEQwSIYyDUcTgEvduInEbQR7cp/pt1uAMik7s47nEjHJkh2IIHHUBVB10ylIp+d5w6qR5QeuwdR+R67wYHdK1IaK9YvcHR9mxpIqVTy0SMtZkZ7RAy2QnpFnfEmHg8gbj1J4A7n0H5BH17Fp6yeoEY9O0qnWetOowyqQasFzoAFO2pxJYwCfN0nJJ6kmTY7HWqTtrQ6CQDHEA5H1/kJYNA3NuWk9BP/gCrHiDzhrWtLnAzMRHcSvR30Gv7KH+jsPLRzPxR+HLP6W+CrwMYGgNAHpDge5nk8q50boPPA+KT0dHYDMAFH03tZG1ELqmJpsbmAPUSPokeqak5pIglo/EYj59PkuNR1pjMudIOI6A/p+iQVqtWs+AJo//AE3u1wPPsf8AKeEJfrBf/wDnEjkECT6g9Uruaxc47hB6g/eHzROoBlNoFOCewyYHMdTHUcj80ut7kkw6HN6A8j/i7kfRTTiZjj3UzK6He5vLSY+ZHuOY9RKgc/P7cH2Wa4cMrgrl7pS1lREsrd0GI3FYuPtZWIDyZgRv4EA0oxr/ACLZkHbymlqAErYUbROEU44vKnm7qEEudJyfX+YXNbLl2zlKA206nuMOdDRkno0e3U9h1Ut7dSDTYNjO343n+55HP/HgY5gFCU6gEMmIMkDPm7esd+p9AIOqQIcAC/hrDBg9C7p7N+eMEogGlQYwb6gkgBwaQCGtP3HEHDnOg7WHEAucC0Q4i31N4m5eAXEllFpzDhy/PIbPJ5e6ejllSn9ofMTtaS5zuXPcT5nZ5c44E9I9Vzd2bnPbLfI0RA4DWiXAfAQOpgdUaMEvtwWtnzOfte8cksHmY095HnPfc3slrKr2PLyTOfmeT8ypKF+4Oe53LyfhuMpowU3bRy4pGaaZrjhguOMfurHb60S2ZmBhU4WDWkZwnNttYCPRTbTkhza60XTuRdzqLNsbhJmEioskY5hdWtg133z805aLIitbU3D3Nd1Mz0kfuPqn9zXZbUy0c7cgckAcjuQPyCQXerstjDOiUX9xWuXtLAcwQR0z+4VRF9A1qrxWJBLmOIODz1BaRwRMg+vqQn1Gkdpd1OeIDu5A6O7t+ITjRdAaxnnAnkDt1LR6SSR7nuhNXfsx+E9uRHUeoRThC+uQZGPVS0a8/qOh9VBcmSeJ6xwRzuC4Y/hZVcNC8Qh33EFROqoYPygzSlc45WIIH1WINSmCOUQXDamFa2BHCBr04C11lgdnop2GELTdCNazglMoicxacCDIHHHuj6zIAICmpPBGQEKKbaqWGRj6pvQYHDc3DuAPqf0QexhJXFN+wzPsgp4ZU5aYGSM+hP7fzqm9jdAgh4Gcfqf0+aq1a9k4RmnVHucI4SwaeVtHY/7nJSZ+jVWv8oPurGys5gA2H3TjTagPmKXsPxTTRr5kHHHotVa9UFsgr0mmGPBMBRv06m45aEtCs6ZqLgxwLcrm9dXqP8jSAR07q2utadMCGiUyt6YgQ0BOFVGsfCT3jdVKtFjZsoMDWN46phWeeAELePIbmAnIWha10Tnr09wlF5auqT2OR6fz9ETtTy0oAtCeDVEq6W8d5GPhyP1QtSzcOi9KdYA9EK/SmnoleTnTzl9Nw6IRzyCvR6uiA9EuuPDo7JfB/SmissVld4fPZaS+T+oote7jhDPr7guKtJ3ZQOaQrT621H0qo2x1S0PUlJ8nCCN6j5Z7JQ+o6eU0aPKhWWoJ7oMC2o4GVhfPOU6utMGzcEhggol0rMFUac8q1aGWMIKqdBxB4TzT9Raz7wSpyvR7Pa8RCLbpzPZING1pj/uqw0LrckYmhZBogKVtrJBPRbp1VMXyjC1w22YTJyury6axpJjC7Y1V/wAT2b3t8pKqcp0Dc+JiCYhK36y95ycKu1bWqHEGVG1lSYAKNNa6d5uIAMq6aUfKFSfD2mOHmernYPgwlL6dnhrtWixSsXZatUB/s1o0giA1bAQAhtgsRe1YlgePnTmOyhLnR29FxZ6jjlEu1ELCytpVfutII4Q1C1IKsT7ppQdYDkJy1NkBTGCtMuGsdJUdw/KiLw7lWQ2+1Rrm7WpVQEuCytHQKSxoy4Slhbqz6dpTKg9UUfDMzlTaVtYOUW7UdkkuRDoWz0d1BwgyFYraptISi11QVMDKZDojC0+oPBCLppDRugOqPo3w7q5E2nLQunUw4QUtbqDe6Jp3g7qgruvWQaZAS60oN5gJ7rlYFqQW1VY9rh4yAMLhlba6VCLgAJXfX8KYdXexvQeqZNcCvLLLVnB2CrrpOpbwJWnPSbysACyFpj5C7WiXMLa2sQHzNSuS1SuuihLZm50Jq+g1jcrKrgA3TpUzLooOs8ThRsenhaPflRNfBXbKghCvfJQKastd4kBbo6VUJwCiPD9QzHRW6iQI4UddWKklVpmmVgMSspaJcVCBBV2tyyRkKxaawdkp1TvMU7SPC76TS53PK4urotMdl6WaYLSFRNb0yHmOq0lRSN124rG3j0Z/Tium6ceyfpBW3j+6Noai4dVG6yPZSU9OceiPQjv70uHKXU7uE5udIcW8JLW0epOAVPU1UuCX6jjlLLmvuPKhuLd7eQVHTYYyCpw9S0akFWfSryIgqpi3e44BVn0jTngCQnha9B0ytuaEyCS6SwtAlOWlaxDaxaWJh8x2b4Knvbnd1QRYQtOMrPDclYFKykSpqdoSjQHapWsRYsiF2bbCWqwbpFM8hMbyq8Dylc6FQ7ou9ZBR1P6Ob/AtlfuDhvlegaLqO4BUKnTDiFZdOG0DKiqx6DbPkIHULQOMqHSr2RCYvcCr5qeoVssQeimbYt7I4MXRYtWRabJs8KcWzR0RD2rIQoM6iOyjdaN7I1y04JAmr6Sx3IQ39AZ2T0tWtiMGlFDSWNOGhNqNs0dFpoyp2lIJmNAU7HIUKRr0wnlbUW9YmHiV7oWTASmto7h0XstXSWu6IK50VscKcPXktvalpyEeaTQRCutXw8HdEDX8N9WqLFSkj6TdslJTXhxCtFxo74ghA/0PbkozBoezutvCMqVC7oomWRmApq1NzYBRb/BIgY8hwTJl/tIChZbGJhcfYOmdqlSz2GqBsJ9bXweRlefsPEyFYdJeDG0yUiq9s4XcIS1qEtCLAwt4yxC8LGhTbFkBM0TmqNymdlRuagOQ1cuCkaFw50lARBq6atvatNakEsrbSsBC6aEB0AsW9yxMO30lybYHlGFqzagADZBcCwHZNIXIYlgI62mA9El1LTIBwrwaYQ9e0Dgiwa8rewMJJCSm6+0qgdAV6lf+H2vBwq07wzsdLW9VF5VKFunhjGyBBhac0y0AYd1UusadVqBrGsOCMx2TD+nVRTZDZc2Evk9VvW7YtaCOnKzw49zXtgE7iAe3urpQ0c1Gj7Rsd01stKZTA2tCfPJXpNbM2tEogZW3NkLGMK0S2crlwUwYuHICBgM5XTguwFySgIiuCyMqRwXD2ygI3nK4KnaxdPYEgHClY5cO5hdsagOytrCViA//2Q==</t>
-  </si>
-  <si>
     <t>cute_kitty.jpg</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Main_coon_on_bench.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/d2/73/87/d27387a1d5fe25d23a177237b8338200.jpg</t>
   </si>
 </sst>
 </file>
@@ -171,8 +171,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,164 +454,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E33"/>
+  <dimension ref="B3:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
